--- a/Art ID List.xlsx
+++ b/Art ID List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Fiddle-Me-This\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4220C427-0E03-4570-9E24-E4CF2FA28B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD605359-B9D1-42D6-BF28-E36AE51BE5D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{DD4EAEB4-EF9E-4D3A-9D9E-D4CF623C6668}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{DD4EAEB4-EF9E-4D3A-9D9E-D4CF623C6668}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet5" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="67">
   <si>
     <t>Macro Button1</t>
   </si>
@@ -189,9 +189,6 @@
     <t>HP/MP/SAM Bar Stacked - Diag - Green Bar</t>
   </si>
   <si>
-    <t>HP/MP/SAM Bar Stacked - Diag - Blank</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -205,6 +202,39 @@
   </si>
   <si>
     <t>Original Gump Art not included in list, yet</t>
+  </si>
+  <si>
+    <t>HP/MP/SAM Bar Stacked - Diag - Bkg - Smaller</t>
+  </si>
+  <si>
+    <t>HP/MP/SAM Bar Stacked - Diag - Red Bar - Smaller</t>
+  </si>
+  <si>
+    <t>HP/MP/SAM Bar Stacked - Diag - Blue Bar - Smaller</t>
+  </si>
+  <si>
+    <t>HP/MP/SAM Bar Stacked - Diag - Green Bar - Smaller</t>
+  </si>
+  <si>
+    <t>HP/MP/SAM Bar Stacked - Diag - Blank 1</t>
+  </si>
+  <si>
+    <t>HP/MP/SAM Bar Stacked - Diag - Blank 2</t>
+  </si>
+  <si>
+    <t>HP/MP/SAM Bar Stacked - Diag - Blank 3</t>
+  </si>
+  <si>
+    <t>HP/MP/SAM Bar Stacked - Diag - Blank 1 - Smaller</t>
+  </si>
+  <si>
+    <t>HP/MP/SAM Bar Stacked - Diag - Blank 2 - Smaller</t>
+  </si>
+  <si>
+    <t>HP/MP/SAM Bar Stacked - Diag - Blank 3 - Smaller</t>
+  </si>
+  <si>
+    <t>Width</t>
   </si>
 </sst>
 </file>
@@ -260,7 +290,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -327,12 +360,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{69680736-96EE-4B10-95DB-A21DB3D7650F}" name="Table1" displayName="Table1" ref="B5:D505" totalsRowShown="0">
-  <autoFilter ref="B5:D505" xr:uid="{69680736-96EE-4B10-95DB-A21DB3D7650F}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{F5F687B1-1738-4E37-BBA2-BFD596F158A5}" name="ID" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{7FECCEDF-172F-48BF-A793-5C4D342EAA64}" name="Description" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{AD0E1D0B-81B8-4274-A900-E55EA05988A7}" name="Placeholder (Future Use)" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{69680736-96EE-4B10-95DB-A21DB3D7650F}" name="Table1" displayName="Table1" ref="B5:E505" totalsRowShown="0">
+  <autoFilter ref="B5:E505" xr:uid="{69680736-96EE-4B10-95DB-A21DB3D7650F}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{F5F687B1-1738-4E37-BBA2-BFD596F158A5}" name="ID" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{7FECCEDF-172F-48BF-A793-5C4D342EAA64}" name="Description" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{AD0E1D0B-81B8-4274-A900-E55EA05988A7}" name="Placeholder (Future Use)" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{91B2961A-B205-4048-98F1-97AA455D801E}" name="Width" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -635,7 +669,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CF2D78D-E8E0-4C06-878E-7AEAC24ADB9E}">
-  <dimension ref="B2:D505"/>
+  <dimension ref="B2:E505"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -647,179 +681,205 @@
     <col min="4" max="4" width="27.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>61978</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>61979</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>61980</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>61981</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>61982</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>61983</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>61984</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>61985</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>61986</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>61987</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>61988</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>61989</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>61990</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>61991</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>61992</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>61993</v>
       </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>61994</v>
       </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>61995</v>
       </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>61996</v>
       </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>61997</v>
       </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>61998</v>
       </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>61999</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>62000</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>62001</v>
       </c>
@@ -829,8 +889,9 @@
       <c r="D29" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>62002</v>
       </c>
@@ -840,8 +901,9 @@
       <c r="D30" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <v>62003</v>
       </c>
@@ -851,8 +913,9 @@
       <c r="D31" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <v>62004</v>
       </c>
@@ -862,8 +925,9 @@
       <c r="D32" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <v>62005</v>
       </c>
@@ -873,8 +937,9 @@
       <c r="D33" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <v>62006</v>
       </c>
@@ -884,8 +949,9 @@
       <c r="D34" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <v>62007</v>
       </c>
@@ -895,8 +961,9 @@
       <c r="D35" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
         <v>62008</v>
       </c>
@@ -906,8 +973,9 @@
       <c r="D36" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
         <v>62009</v>
       </c>
@@ -917,8 +985,9 @@
       <c r="D37" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
         <v>62010</v>
       </c>
@@ -928,8 +997,9 @@
       <c r="D38" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
         <v>62011</v>
       </c>
@@ -939,8 +1009,9 @@
       <c r="D39" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
         <v>62012</v>
       </c>
@@ -950,8 +1021,9 @@
       <c r="D40" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
         <v>62013</v>
       </c>
@@ -961,8 +1033,9 @@
       <c r="D41" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" s="1">
         <v>62014</v>
       </c>
@@ -972,8 +1045,9 @@
       <c r="D42" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" s="1">
         <v>62015</v>
       </c>
@@ -983,8 +1057,9 @@
       <c r="D43" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" s="1">
         <v>62016</v>
       </c>
@@ -994,8 +1069,9 @@
       <c r="D44" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45" s="1">
         <v>62017</v>
       </c>
@@ -1005,8 +1081,9 @@
       <c r="D45" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46" s="1">
         <v>62018</v>
       </c>
@@ -1016,8 +1093,9 @@
       <c r="D46" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47" s="1">
         <v>62019</v>
       </c>
@@ -1027,8 +1105,9 @@
       <c r="D47" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48" s="1">
         <v>62020</v>
       </c>
@@ -1038,8 +1117,9 @@
       <c r="D48" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49" s="1">
         <v>62021</v>
       </c>
@@ -1049,8 +1129,9 @@
       <c r="D49" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50" s="1">
         <v>62022</v>
       </c>
@@ -1060,8 +1141,9 @@
       <c r="D50" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51" s="1">
         <v>62023</v>
       </c>
@@ -1071,8 +1153,9 @@
       <c r="D51" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52" s="1">
         <v>62024</v>
       </c>
@@ -1082,8 +1165,9 @@
       <c r="D52" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53" s="1">
         <v>62025</v>
       </c>
@@ -1093,8 +1177,9 @@
       <c r="D53" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B54" s="1">
         <v>62026</v>
       </c>
@@ -1104,2327 +1189,2820 @@
       <c r="D54" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B55" s="1">
         <v>62027</v>
       </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B56" s="1">
         <v>62028</v>
       </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E56" s="1"/>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B57" s="1">
         <v>62029</v>
       </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E57" s="1"/>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B58" s="1">
         <v>62030</v>
       </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E58" s="1"/>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B59" s="1">
         <v>62031</v>
       </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B60" s="1">
         <v>62032</v>
       </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E60" s="1"/>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B61" s="1">
         <v>62033</v>
       </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E61" s="1"/>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B62" s="1">
         <v>62034</v>
       </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E62" s="1"/>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B63" s="1">
         <v>62035</v>
       </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E63" s="1"/>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B64" s="1">
         <v>62036</v>
       </c>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E64" s="1"/>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B65" s="1">
         <v>62037</v>
       </c>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E65" s="1"/>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B66" s="1">
         <v>62038</v>
       </c>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E66" s="1"/>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B67" s="1">
         <v>62039</v>
       </c>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E67" s="1"/>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B68" s="1">
         <v>62040</v>
       </c>
-    </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E68" s="1"/>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B69" s="1">
         <v>62041</v>
       </c>
-    </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E69" s="1"/>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B70" s="1">
         <v>62042</v>
       </c>
-    </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E70" s="1"/>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B71" s="1">
         <v>62043</v>
       </c>
-    </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E71" s="1"/>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B72" s="1">
         <v>62044</v>
       </c>
-    </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E72" s="1"/>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B73" s="1">
         <v>62045</v>
       </c>
-    </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E73" s="1"/>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B74" s="1">
         <v>62046</v>
       </c>
-    </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E74" s="1"/>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B75" s="1">
         <v>62047</v>
       </c>
-    </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E75" s="1"/>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B76" s="1">
         <v>62048</v>
       </c>
-    </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E76" s="1"/>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B77" s="1">
         <v>62049</v>
       </c>
-    </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E77" s="1"/>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B78" s="1">
         <v>62050</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E78" s="1"/>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B79" s="1">
         <v>62051</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E79" s="1"/>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B80" s="1">
         <v>62052</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E80" s="1"/>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B81" s="1">
         <v>62053</v>
       </c>
-    </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E81" s="1"/>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B82" s="1">
         <v>62054</v>
       </c>
-    </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E82" s="1"/>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B83" s="1">
         <v>62055</v>
       </c>
-    </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E83" s="1"/>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B84" s="1">
         <v>62056</v>
       </c>
-    </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E84" s="1"/>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B85" s="1">
         <v>62057</v>
       </c>
-    </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E85" s="1"/>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B86" s="1">
         <v>62058</v>
       </c>
-    </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E86" s="1"/>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B87" s="1">
         <v>62059</v>
       </c>
-    </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E87" s="1"/>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B88" s="1">
         <v>62060</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E88" s="1"/>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B89" s="1">
         <v>62061</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E89" s="1"/>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B90" s="1">
         <v>62062</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E90" s="1"/>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B91" s="1">
         <v>62063</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E91" s="1"/>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B92" s="1">
         <v>62064</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E92" s="1"/>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B93" s="1">
         <v>62065</v>
       </c>
-    </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E93" s="1"/>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B94" s="1">
         <v>62066</v>
       </c>
-    </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E94" s="1"/>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B95" s="1">
         <v>62067</v>
       </c>
-    </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E95" s="1"/>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B96" s="1">
         <v>62068</v>
       </c>
-    </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E96" s="1"/>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B97" s="1">
         <v>62069</v>
       </c>
-    </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E97" s="1"/>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B98" s="1">
         <v>62070</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E98" s="1"/>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B99" s="1">
         <v>62071</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E99" s="1"/>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B100" s="1">
         <v>62072</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E100" s="1"/>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B101" s="1">
         <v>62073</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E101" s="1"/>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B102" s="1">
         <v>62074</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="E102" s="1"/>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B103" s="1">
         <v>62075</v>
       </c>
-    </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C103" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E103" s="1"/>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B104" s="1">
         <v>62076</v>
       </c>
-    </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C104" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E104" s="1"/>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B105" s="1">
         <v>62077</v>
       </c>
-    </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C105" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E105" s="1">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B106" s="1">
         <v>62078</v>
       </c>
-    </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C106" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E106" s="1">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B107" s="1">
         <v>62079</v>
       </c>
-    </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C107" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E107" s="1">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B108" s="1">
         <v>62080</v>
       </c>
-    </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C108" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E108" s="1">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B109" s="1">
         <v>62081</v>
       </c>
-    </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C109" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E109" s="1">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B110" s="1">
         <v>62082</v>
       </c>
-    </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C110" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E110" s="1">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B111" s="1">
         <v>62083</v>
       </c>
-    </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C111" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E111" s="1">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B112" s="1">
         <v>62084</v>
       </c>
-    </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E112" s="1"/>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B113" s="1">
         <v>62085</v>
       </c>
-    </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E113" s="1"/>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B114" s="1">
         <v>62086</v>
       </c>
-    </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E114" s="1"/>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B115" s="1">
         <v>62087</v>
       </c>
-    </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E115" s="1"/>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B116" s="1">
         <v>62088</v>
       </c>
-    </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E116" s="1"/>
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B117" s="1">
         <v>62089</v>
       </c>
-    </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E117" s="1"/>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B118" s="1">
         <v>62090</v>
       </c>
-    </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E118" s="1"/>
+    </row>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B119" s="1">
         <v>62091</v>
       </c>
-    </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E119" s="1"/>
+    </row>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B120" s="1">
         <v>62092</v>
       </c>
-    </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E120" s="1"/>
+    </row>
+    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B121" s="1">
         <v>62093</v>
       </c>
-    </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E121" s="1"/>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B122" s="1">
         <v>62094</v>
       </c>
-    </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E122" s="1"/>
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B123" s="1">
         <v>62095</v>
       </c>
-    </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E123" s="1"/>
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B124" s="1">
         <v>62096</v>
       </c>
-    </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E124" s="1"/>
+    </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B125" s="1">
         <v>62097</v>
       </c>
-    </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E125" s="1"/>
+    </row>
+    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B126" s="1">
         <v>62098</v>
       </c>
-    </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E126" s="1"/>
+    </row>
+    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B127" s="1">
         <v>62099</v>
       </c>
-    </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E127" s="1"/>
+    </row>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B128" s="1">
         <v>62100</v>
       </c>
-    </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E128" s="1"/>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B129" s="1">
         <v>62101</v>
       </c>
-    </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E129" s="1"/>
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B130" s="1">
         <v>62102</v>
       </c>
-    </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E130" s="1"/>
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B131" s="1">
         <v>62103</v>
       </c>
-    </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E131" s="1"/>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B132" s="1">
         <v>62104</v>
       </c>
-    </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E132" s="1"/>
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B133" s="1">
         <v>62105</v>
       </c>
-    </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E133" s="1"/>
+    </row>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B134" s="1">
         <v>62106</v>
       </c>
-    </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E134" s="1"/>
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B135" s="1">
         <v>62107</v>
       </c>
-    </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E135" s="1"/>
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B136" s="1">
         <v>62108</v>
       </c>
-    </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E136" s="1"/>
+    </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B137" s="1">
         <v>62109</v>
       </c>
-    </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E137" s="1"/>
+    </row>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B138" s="1">
         <v>62110</v>
       </c>
-    </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E138" s="1"/>
+    </row>
+    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B139" s="1">
         <v>62111</v>
       </c>
-    </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E139" s="1"/>
+    </row>
+    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B140" s="1">
         <v>62112</v>
       </c>
-    </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E140" s="1"/>
+    </row>
+    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B141" s="1">
         <v>62113</v>
       </c>
-    </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E141" s="1"/>
+    </row>
+    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B142" s="1">
         <v>62114</v>
       </c>
-    </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E142" s="1"/>
+    </row>
+    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B143" s="1">
         <v>62115</v>
       </c>
-    </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E143" s="1"/>
+    </row>
+    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B144" s="1">
         <v>62116</v>
       </c>
-    </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E144" s="1"/>
+    </row>
+    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B145" s="1">
         <v>62117</v>
       </c>
-    </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E145" s="1"/>
+    </row>
+    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B146" s="1">
         <v>62118</v>
       </c>
-    </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E146" s="1"/>
+    </row>
+    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B147" s="1">
         <v>62119</v>
       </c>
-    </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E147" s="1"/>
+    </row>
+    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B148" s="1">
         <v>62120</v>
       </c>
-    </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E148" s="1"/>
+    </row>
+    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B149" s="1">
         <v>62121</v>
       </c>
-    </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E149" s="1"/>
+    </row>
+    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B150" s="1">
         <v>62122</v>
       </c>
-    </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E150" s="1"/>
+    </row>
+    <row r="151" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B151" s="1">
         <v>62123</v>
       </c>
-    </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E151" s="1"/>
+    </row>
+    <row r="152" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B152" s="1">
         <v>62124</v>
       </c>
-    </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E152" s="1"/>
+    </row>
+    <row r="153" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B153" s="1">
         <v>62125</v>
       </c>
-    </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E153" s="1"/>
+    </row>
+    <row r="154" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B154" s="1">
         <v>62126</v>
       </c>
-    </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E154" s="1"/>
+    </row>
+    <row r="155" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B155" s="1">
         <v>62127</v>
       </c>
-    </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E155" s="1"/>
+    </row>
+    <row r="156" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B156" s="1">
         <v>62128</v>
       </c>
-    </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E156" s="1"/>
+    </row>
+    <row r="157" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B157" s="1">
         <v>62129</v>
       </c>
-    </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E157" s="1"/>
+    </row>
+    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B158" s="1">
         <v>62130</v>
       </c>
-    </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E158" s="1"/>
+    </row>
+    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B159" s="1">
         <v>62131</v>
       </c>
-    </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E159" s="1"/>
+    </row>
+    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B160" s="1">
         <v>62132</v>
       </c>
-    </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E160" s="1"/>
+    </row>
+    <row r="161" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B161" s="1">
         <v>62133</v>
       </c>
-    </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E161" s="1"/>
+    </row>
+    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B162" s="1">
         <v>62134</v>
       </c>
-    </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E162" s="1"/>
+    </row>
+    <row r="163" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B163" s="1">
         <v>62135</v>
       </c>
-    </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E163" s="1"/>
+    </row>
+    <row r="164" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B164" s="1">
         <v>62136</v>
       </c>
-    </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E164" s="1"/>
+    </row>
+    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B165" s="1">
         <v>62137</v>
       </c>
-    </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E165" s="1"/>
+    </row>
+    <row r="166" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B166" s="1">
         <v>62138</v>
       </c>
-    </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E166" s="1"/>
+    </row>
+    <row r="167" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B167" s="1">
         <v>62139</v>
       </c>
-    </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E167" s="1"/>
+    </row>
+    <row r="168" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B168" s="1">
         <v>62140</v>
       </c>
-    </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E168" s="1"/>
+    </row>
+    <row r="169" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B169" s="1">
         <v>62141</v>
       </c>
-    </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E169" s="1"/>
+    </row>
+    <row r="170" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B170" s="1">
         <v>62142</v>
       </c>
-    </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E170" s="1"/>
+    </row>
+    <row r="171" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B171" s="1">
         <v>62143</v>
       </c>
-    </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E171" s="1"/>
+    </row>
+    <row r="172" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B172" s="1">
         <v>62144</v>
       </c>
-    </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E172" s="1"/>
+    </row>
+    <row r="173" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B173" s="1">
         <v>62145</v>
       </c>
-    </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E173" s="1"/>
+    </row>
+    <row r="174" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B174" s="1">
         <v>62146</v>
       </c>
-    </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E174" s="1"/>
+    </row>
+    <row r="175" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B175" s="1">
         <v>62147</v>
       </c>
-    </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E175" s="1"/>
+    </row>
+    <row r="176" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B176" s="1">
         <v>62148</v>
       </c>
-    </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E176" s="1"/>
+    </row>
+    <row r="177" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B177" s="1">
         <v>62149</v>
       </c>
-    </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E177" s="1"/>
+    </row>
+    <row r="178" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B178" s="1">
         <v>62150</v>
       </c>
-    </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E178" s="1"/>
+    </row>
+    <row r="179" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B179" s="1">
         <v>62151</v>
       </c>
-    </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E179" s="1"/>
+    </row>
+    <row r="180" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B180" s="1">
         <v>62152</v>
       </c>
-    </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E180" s="1"/>
+    </row>
+    <row r="181" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B181" s="1">
         <v>62153</v>
       </c>
-    </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E181" s="1"/>
+    </row>
+    <row r="182" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B182" s="1">
         <v>62154</v>
       </c>
-    </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E182" s="1"/>
+    </row>
+    <row r="183" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B183" s="1">
         <v>62155</v>
       </c>
-    </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E183" s="1"/>
+    </row>
+    <row r="184" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B184" s="1">
         <v>62156</v>
       </c>
-    </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E184" s="1"/>
+    </row>
+    <row r="185" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B185" s="1">
         <v>62157</v>
       </c>
-    </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E185" s="1"/>
+    </row>
+    <row r="186" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B186" s="1">
         <v>62158</v>
       </c>
-    </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E186" s="1"/>
+    </row>
+    <row r="187" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B187" s="1">
         <v>62159</v>
       </c>
-    </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E187" s="1"/>
+    </row>
+    <row r="188" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B188" s="1">
         <v>62160</v>
       </c>
-    </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E188" s="1"/>
+    </row>
+    <row r="189" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B189" s="1">
         <v>62161</v>
       </c>
-    </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E189" s="1"/>
+    </row>
+    <row r="190" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B190" s="1">
         <v>62162</v>
       </c>
-    </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E190" s="1"/>
+    </row>
+    <row r="191" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B191" s="1">
         <v>62163</v>
       </c>
-    </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E191" s="1"/>
+    </row>
+    <row r="192" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B192" s="1">
         <v>62164</v>
       </c>
-    </row>
-    <row r="193" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E192" s="1"/>
+    </row>
+    <row r="193" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B193" s="1">
         <v>62165</v>
       </c>
-    </row>
-    <row r="194" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E193" s="1"/>
+    </row>
+    <row r="194" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B194" s="1">
         <v>62166</v>
       </c>
-    </row>
-    <row r="195" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E194" s="1"/>
+    </row>
+    <row r="195" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B195" s="1">
         <v>62167</v>
       </c>
-    </row>
-    <row r="196" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E195" s="1"/>
+    </row>
+    <row r="196" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B196" s="1">
         <v>62168</v>
       </c>
-    </row>
-    <row r="197" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E196" s="1"/>
+    </row>
+    <row r="197" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B197" s="1">
         <v>62169</v>
       </c>
-    </row>
-    <row r="198" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E197" s="1"/>
+    </row>
+    <row r="198" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B198" s="1">
         <v>62170</v>
       </c>
-    </row>
-    <row r="199" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E198" s="1"/>
+    </row>
+    <row r="199" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B199" s="1">
         <v>62171</v>
       </c>
-    </row>
-    <row r="200" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E199" s="1"/>
+    </row>
+    <row r="200" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B200" s="1">
         <v>62172</v>
       </c>
-    </row>
-    <row r="201" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E200" s="1"/>
+    </row>
+    <row r="201" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B201" s="1">
         <v>62173</v>
       </c>
-    </row>
-    <row r="202" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E201" s="1"/>
+    </row>
+    <row r="202" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B202" s="1">
         <v>62174</v>
       </c>
-    </row>
-    <row r="203" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E202" s="1"/>
+    </row>
+    <row r="203" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B203" s="1">
         <v>62175</v>
       </c>
-    </row>
-    <row r="204" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E203" s="1"/>
+    </row>
+    <row r="204" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B204" s="1">
         <v>62176</v>
       </c>
-    </row>
-    <row r="205" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E204" s="1"/>
+    </row>
+    <row r="205" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B205" s="1">
         <v>62177</v>
       </c>
-    </row>
-    <row r="206" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E205" s="1"/>
+    </row>
+    <row r="206" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B206" s="1">
         <v>62178</v>
       </c>
-    </row>
-    <row r="207" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E206" s="1"/>
+    </row>
+    <row r="207" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B207" s="1">
         <v>62179</v>
       </c>
-    </row>
-    <row r="208" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E207" s="1"/>
+    </row>
+    <row r="208" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B208" s="1">
         <v>62180</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="209" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E208" s="1"/>
+    </row>
+    <row r="209" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B209" s="1">
         <v>62181</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="210" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E209" s="1"/>
+    </row>
+    <row r="210" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B210" s="1">
         <v>62182</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="211" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E210" s="1"/>
+    </row>
+    <row r="211" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B211" s="1">
         <v>62183</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="212" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E211" s="1"/>
+    </row>
+    <row r="212" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B212" s="1">
         <v>62184</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="213" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E212" s="1"/>
+    </row>
+    <row r="213" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B213" s="1">
         <v>62185</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="214" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E213" s="1"/>
+    </row>
+    <row r="214" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B214" s="1">
         <v>62186</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="215" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E214" s="1"/>
+    </row>
+    <row r="215" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B215" s="1">
         <v>62187</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="216" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E215" s="1"/>
+    </row>
+    <row r="216" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B216" s="1">
         <v>62188</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="217" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E216" s="1"/>
+    </row>
+    <row r="217" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B217" s="1">
         <v>62189</v>
       </c>
-    </row>
-    <row r="218" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E217" s="1"/>
+    </row>
+    <row r="218" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B218" s="1">
         <v>62190</v>
       </c>
-    </row>
-    <row r="219" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E218" s="1"/>
+    </row>
+    <row r="219" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B219" s="1">
         <v>62191</v>
       </c>
-    </row>
-    <row r="220" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E219" s="1"/>
+    </row>
+    <row r="220" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B220" s="1">
         <v>62192</v>
       </c>
-    </row>
-    <row r="221" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E220" s="1"/>
+    </row>
+    <row r="221" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B221" s="1">
         <v>62193</v>
       </c>
-    </row>
-    <row r="222" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E221" s="1"/>
+    </row>
+    <row r="222" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B222" s="1">
         <v>62194</v>
       </c>
-    </row>
-    <row r="223" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E222" s="1"/>
+    </row>
+    <row r="223" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B223" s="1">
         <v>62195</v>
       </c>
-    </row>
-    <row r="224" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E223" s="1"/>
+    </row>
+    <row r="224" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B224" s="1">
         <v>62196</v>
       </c>
-    </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E224" s="1"/>
+    </row>
+    <row r="225" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B225" s="1">
         <v>62197</v>
       </c>
-    </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E225" s="1"/>
+    </row>
+    <row r="226" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B226" s="1">
         <v>62198</v>
       </c>
-    </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E226" s="1"/>
+    </row>
+    <row r="227" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B227" s="1">
         <v>62199</v>
       </c>
-    </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E227" s="1"/>
+    </row>
+    <row r="228" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B228" s="1">
         <v>62200</v>
       </c>
-    </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E228" s="1"/>
+    </row>
+    <row r="229" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B229" s="1">
         <v>62201</v>
       </c>
-    </row>
-    <row r="230" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E229" s="1"/>
+    </row>
+    <row r="230" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B230" s="1">
         <v>62202</v>
       </c>
-    </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E230" s="1"/>
+    </row>
+    <row r="231" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B231" s="1">
         <v>62203</v>
       </c>
-    </row>
-    <row r="232" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E231" s="1"/>
+    </row>
+    <row r="232" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B232" s="1">
         <v>62204</v>
       </c>
-    </row>
-    <row r="233" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E232" s="1"/>
+    </row>
+    <row r="233" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B233" s="1">
         <v>62205</v>
       </c>
-    </row>
-    <row r="234" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E233" s="1"/>
+    </row>
+    <row r="234" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B234" s="1">
         <v>62206</v>
       </c>
-    </row>
-    <row r="235" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E234" s="1"/>
+    </row>
+    <row r="235" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B235" s="1">
         <v>62207</v>
       </c>
-    </row>
-    <row r="236" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E235" s="1"/>
+    </row>
+    <row r="236" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B236" s="1">
         <v>62208</v>
       </c>
-    </row>
-    <row r="237" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E236" s="1"/>
+    </row>
+    <row r="237" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B237" s="1">
         <v>62209</v>
       </c>
-    </row>
-    <row r="238" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E237" s="1"/>
+    </row>
+    <row r="238" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B238" s="1">
         <v>62210</v>
       </c>
-    </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E238" s="1"/>
+    </row>
+    <row r="239" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B239" s="1">
         <v>62211</v>
       </c>
-    </row>
-    <row r="240" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E239" s="1"/>
+    </row>
+    <row r="240" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B240" s="1">
         <v>62212</v>
       </c>
-    </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E240" s="1"/>
+    </row>
+    <row r="241" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B241" s="1">
         <v>62213</v>
       </c>
-    </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E241" s="1"/>
+    </row>
+    <row r="242" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B242" s="1">
         <v>62214</v>
       </c>
-    </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E242" s="1"/>
+    </row>
+    <row r="243" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B243" s="1">
         <v>62215</v>
       </c>
-    </row>
-    <row r="244" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E243" s="1"/>
+    </row>
+    <row r="244" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B244" s="1">
         <v>62216</v>
       </c>
-    </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E244" s="1"/>
+    </row>
+    <row r="245" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B245" s="1">
         <v>62217</v>
       </c>
-    </row>
-    <row r="246" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E245" s="1"/>
+    </row>
+    <row r="246" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B246" s="1">
         <v>62218</v>
       </c>
-    </row>
-    <row r="247" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E246" s="1"/>
+    </row>
+    <row r="247" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B247" s="1">
         <v>62219</v>
       </c>
-    </row>
-    <row r="248" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E247" s="1"/>
+    </row>
+    <row r="248" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B248" s="1">
         <v>62220</v>
       </c>
-    </row>
-    <row r="249" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E248" s="1"/>
+    </row>
+    <row r="249" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B249" s="1">
         <v>62221</v>
       </c>
-    </row>
-    <row r="250" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E249" s="1"/>
+    </row>
+    <row r="250" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B250" s="1">
         <v>62222</v>
       </c>
-    </row>
-    <row r="251" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E250" s="1"/>
+    </row>
+    <row r="251" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B251" s="1">
         <v>62223</v>
       </c>
-    </row>
-    <row r="252" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E251" s="1"/>
+    </row>
+    <row r="252" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B252" s="1">
         <v>62224</v>
       </c>
-    </row>
-    <row r="253" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E252" s="1"/>
+    </row>
+    <row r="253" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B253" s="1">
         <v>62225</v>
       </c>
-    </row>
-    <row r="254" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E253" s="1"/>
+    </row>
+    <row r="254" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B254" s="1">
         <v>62226</v>
       </c>
-    </row>
-    <row r="255" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E254" s="1"/>
+    </row>
+    <row r="255" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B255" s="1">
         <v>62227</v>
       </c>
-    </row>
-    <row r="256" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E255" s="1"/>
+    </row>
+    <row r="256" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B256" s="1">
         <v>62228</v>
       </c>
-    </row>
-    <row r="257" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E256" s="1"/>
+    </row>
+    <row r="257" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B257" s="1">
         <v>62229</v>
       </c>
-    </row>
-    <row r="258" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E257" s="1"/>
+    </row>
+    <row r="258" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B258" s="1">
         <v>62230</v>
       </c>
-    </row>
-    <row r="259" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E258" s="1"/>
+    </row>
+    <row r="259" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B259" s="1">
         <v>62231</v>
       </c>
-    </row>
-    <row r="260" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E259" s="1"/>
+    </row>
+    <row r="260" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B260" s="1">
         <v>62232</v>
       </c>
-    </row>
-    <row r="261" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E260" s="1"/>
+    </row>
+    <row r="261" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B261" s="1">
         <v>62233</v>
       </c>
-    </row>
-    <row r="262" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E261" s="1"/>
+    </row>
+    <row r="262" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B262" s="1">
         <v>62234</v>
       </c>
-    </row>
-    <row r="263" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E262" s="1"/>
+    </row>
+    <row r="263" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B263" s="1">
         <v>62235</v>
       </c>
-    </row>
-    <row r="264" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E263" s="1"/>
+    </row>
+    <row r="264" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B264" s="1">
         <v>62236</v>
       </c>
-    </row>
-    <row r="265" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E264" s="1"/>
+    </row>
+    <row r="265" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B265" s="1">
         <v>62237</v>
       </c>
-    </row>
-    <row r="266" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E265" s="1"/>
+    </row>
+    <row r="266" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B266" s="1">
         <v>62238</v>
       </c>
-    </row>
-    <row r="267" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E266" s="1"/>
+    </row>
+    <row r="267" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B267" s="1">
         <v>62239</v>
       </c>
-    </row>
-    <row r="268" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E267" s="1"/>
+    </row>
+    <row r="268" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B268" s="1">
         <v>62240</v>
       </c>
-    </row>
-    <row r="269" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E268" s="1"/>
+    </row>
+    <row r="269" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B269" s="1">
         <v>62241</v>
       </c>
-    </row>
-    <row r="270" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E269" s="1"/>
+    </row>
+    <row r="270" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B270" s="1">
         <v>62242</v>
       </c>
-    </row>
-    <row r="271" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E270" s="1"/>
+    </row>
+    <row r="271" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B271" s="1">
         <v>62243</v>
       </c>
-    </row>
-    <row r="272" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E271" s="1"/>
+    </row>
+    <row r="272" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B272" s="1">
         <v>62244</v>
       </c>
-    </row>
-    <row r="273" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E272" s="1"/>
+    </row>
+    <row r="273" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B273" s="1">
         <v>62245</v>
       </c>
-    </row>
-    <row r="274" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E273" s="1"/>
+    </row>
+    <row r="274" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B274" s="1">
         <v>62246</v>
       </c>
-    </row>
-    <row r="275" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E274" s="1"/>
+    </row>
+    <row r="275" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B275" s="1">
         <v>62247</v>
       </c>
-    </row>
-    <row r="276" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E275" s="1"/>
+    </row>
+    <row r="276" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B276" s="1">
         <v>62248</v>
       </c>
-    </row>
-    <row r="277" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E276" s="1"/>
+    </row>
+    <row r="277" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B277" s="1">
         <v>62249</v>
       </c>
-    </row>
-    <row r="278" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E277" s="1"/>
+    </row>
+    <row r="278" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B278" s="1">
         <v>62250</v>
       </c>
-    </row>
-    <row r="279" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E278" s="1"/>
+    </row>
+    <row r="279" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B279" s="1">
         <v>62251</v>
       </c>
-    </row>
-    <row r="280" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E279" s="1"/>
+    </row>
+    <row r="280" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B280" s="1">
         <v>62252</v>
       </c>
-    </row>
-    <row r="281" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E280" s="1"/>
+    </row>
+    <row r="281" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B281" s="1">
         <v>62253</v>
       </c>
-    </row>
-    <row r="282" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E281" s="1"/>
+    </row>
+    <row r="282" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B282" s="1">
         <v>62254</v>
       </c>
-    </row>
-    <row r="283" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E282" s="1"/>
+    </row>
+    <row r="283" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B283" s="1">
         <v>62255</v>
       </c>
-    </row>
-    <row r="284" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E283" s="1"/>
+    </row>
+    <row r="284" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B284" s="1">
         <v>62256</v>
       </c>
-    </row>
-    <row r="285" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E284" s="1"/>
+    </row>
+    <row r="285" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B285" s="1">
         <v>62257</v>
       </c>
-    </row>
-    <row r="286" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E285" s="1"/>
+    </row>
+    <row r="286" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B286" s="1">
         <v>62258</v>
       </c>
-    </row>
-    <row r="287" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E286" s="1"/>
+    </row>
+    <row r="287" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B287" s="1">
         <v>62259</v>
       </c>
-    </row>
-    <row r="288" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E287" s="1"/>
+    </row>
+    <row r="288" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B288" s="1">
         <v>62260</v>
       </c>
-    </row>
-    <row r="289" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E288" s="1"/>
+    </row>
+    <row r="289" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B289" s="1">
         <v>62261</v>
       </c>
-    </row>
-    <row r="290" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E289" s="1"/>
+    </row>
+    <row r="290" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B290" s="1">
         <v>62262</v>
       </c>
-    </row>
-    <row r="291" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E290" s="1"/>
+    </row>
+    <row r="291" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B291" s="1">
         <v>62263</v>
       </c>
-    </row>
-    <row r="292" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E291" s="1"/>
+    </row>
+    <row r="292" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B292" s="1">
         <v>62264</v>
       </c>
-    </row>
-    <row r="293" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E292" s="1"/>
+    </row>
+    <row r="293" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B293" s="1">
         <v>62265</v>
       </c>
-    </row>
-    <row r="294" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E293" s="1"/>
+    </row>
+    <row r="294" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B294" s="1">
         <v>62266</v>
       </c>
-    </row>
-    <row r="295" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E294" s="1"/>
+    </row>
+    <row r="295" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B295" s="1">
         <v>62267</v>
       </c>
-    </row>
-    <row r="296" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E295" s="1"/>
+    </row>
+    <row r="296" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B296" s="1">
         <v>62268</v>
       </c>
-    </row>
-    <row r="297" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E296" s="1"/>
+    </row>
+    <row r="297" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B297" s="1">
         <v>62269</v>
       </c>
-    </row>
-    <row r="298" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E297" s="1"/>
+    </row>
+    <row r="298" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B298" s="1">
         <v>62270</v>
       </c>
-    </row>
-    <row r="299" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E298" s="1"/>
+    </row>
+    <row r="299" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B299" s="1">
         <v>62271</v>
       </c>
-    </row>
-    <row r="300" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E299" s="1"/>
+    </row>
+    <row r="300" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B300" s="1">
         <v>62272</v>
       </c>
-    </row>
-    <row r="301" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E300" s="1"/>
+    </row>
+    <row r="301" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B301" s="1">
         <v>62273</v>
       </c>
-    </row>
-    <row r="302" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E301" s="1"/>
+    </row>
+    <row r="302" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B302" s="1">
         <v>62274</v>
       </c>
-    </row>
-    <row r="303" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E302" s="1"/>
+    </row>
+    <row r="303" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B303" s="1">
         <v>62275</v>
       </c>
-    </row>
-    <row r="304" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E303" s="1"/>
+    </row>
+    <row r="304" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B304" s="1">
         <v>62276</v>
       </c>
-    </row>
-    <row r="305" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E304" s="1"/>
+    </row>
+    <row r="305" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B305" s="1">
         <v>62277</v>
       </c>
-    </row>
-    <row r="306" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E305" s="1"/>
+    </row>
+    <row r="306" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B306" s="1">
         <v>62278</v>
       </c>
-    </row>
-    <row r="307" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E306" s="1"/>
+    </row>
+    <row r="307" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B307" s="1">
         <v>62279</v>
       </c>
-    </row>
-    <row r="308" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E307" s="1"/>
+    </row>
+    <row r="308" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B308" s="1">
         <v>62280</v>
       </c>
-    </row>
-    <row r="309" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E308" s="1"/>
+    </row>
+    <row r="309" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B309" s="1">
         <v>62281</v>
       </c>
-    </row>
-    <row r="310" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E309" s="1"/>
+    </row>
+    <row r="310" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B310" s="1">
         <v>62282</v>
       </c>
-    </row>
-    <row r="311" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E310" s="1"/>
+    </row>
+    <row r="311" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B311" s="1">
         <v>62283</v>
       </c>
-    </row>
-    <row r="312" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E311" s="1"/>
+    </row>
+    <row r="312" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B312" s="1">
         <v>62284</v>
       </c>
-    </row>
-    <row r="313" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E312" s="1"/>
+    </row>
+    <row r="313" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B313" s="1">
         <v>62285</v>
       </c>
-    </row>
-    <row r="314" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E313" s="1"/>
+    </row>
+    <row r="314" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B314" s="1">
         <v>62286</v>
       </c>
-    </row>
-    <row r="315" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E314" s="1"/>
+    </row>
+    <row r="315" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B315" s="1">
         <v>62287</v>
       </c>
-    </row>
-    <row r="316" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E315" s="1"/>
+    </row>
+    <row r="316" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B316" s="1">
         <v>62288</v>
       </c>
-    </row>
-    <row r="317" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E316" s="1"/>
+    </row>
+    <row r="317" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B317" s="1">
         <v>62289</v>
       </c>
-    </row>
-    <row r="318" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E317" s="1"/>
+    </row>
+    <row r="318" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B318" s="1">
         <v>62290</v>
       </c>
-    </row>
-    <row r="319" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E318" s="1"/>
+    </row>
+    <row r="319" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B319" s="1">
         <v>62291</v>
       </c>
-    </row>
-    <row r="320" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E319" s="1"/>
+    </row>
+    <row r="320" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B320" s="1">
         <v>62292</v>
       </c>
-    </row>
-    <row r="321" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E320" s="1"/>
+    </row>
+    <row r="321" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B321" s="1">
         <v>62293</v>
       </c>
-    </row>
-    <row r="322" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E321" s="1"/>
+    </row>
+    <row r="322" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B322" s="1">
         <v>62294</v>
       </c>
-    </row>
-    <row r="323" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E322" s="1"/>
+    </row>
+    <row r="323" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B323" s="1">
         <v>62295</v>
       </c>
-    </row>
-    <row r="324" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E323" s="1"/>
+    </row>
+    <row r="324" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B324" s="1">
         <v>62296</v>
       </c>
-    </row>
-    <row r="325" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E324" s="1"/>
+    </row>
+    <row r="325" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B325" s="1">
         <v>62297</v>
       </c>
-    </row>
-    <row r="326" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E325" s="1"/>
+    </row>
+    <row r="326" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B326" s="1">
         <v>62298</v>
       </c>
-    </row>
-    <row r="327" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E326" s="1"/>
+    </row>
+    <row r="327" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B327" s="1">
         <v>62299</v>
       </c>
-    </row>
-    <row r="328" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E327" s="1"/>
+    </row>
+    <row r="328" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B328" s="1">
         <v>62300</v>
       </c>
-    </row>
-    <row r="329" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E328" s="1"/>
+    </row>
+    <row r="329" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B329" s="1">
         <v>62301</v>
       </c>
-    </row>
-    <row r="330" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E329" s="1"/>
+    </row>
+    <row r="330" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B330" s="1">
         <v>62302</v>
       </c>
-    </row>
-    <row r="331" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E330" s="1"/>
+    </row>
+    <row r="331" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B331" s="1">
         <v>62303</v>
       </c>
-    </row>
-    <row r="332" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E331" s="1"/>
+    </row>
+    <row r="332" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B332" s="1">
         <v>62304</v>
       </c>
-    </row>
-    <row r="333" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E332" s="1"/>
+    </row>
+    <row r="333" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B333" s="1">
         <v>62305</v>
       </c>
-    </row>
-    <row r="334" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E333" s="1"/>
+    </row>
+    <row r="334" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B334" s="1">
         <v>62306</v>
       </c>
-    </row>
-    <row r="335" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E334" s="1"/>
+    </row>
+    <row r="335" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B335" s="1">
         <v>62307</v>
       </c>
-    </row>
-    <row r="336" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E335" s="1"/>
+    </row>
+    <row r="336" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B336" s="1">
         <v>62308</v>
       </c>
-    </row>
-    <row r="337" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E336" s="1"/>
+    </row>
+    <row r="337" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B337" s="1">
         <v>62309</v>
       </c>
-    </row>
-    <row r="338" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E337" s="1"/>
+    </row>
+    <row r="338" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B338" s="1">
         <v>62310</v>
       </c>
-    </row>
-    <row r="339" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E338" s="1"/>
+    </row>
+    <row r="339" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B339" s="1">
         <v>62311</v>
       </c>
-    </row>
-    <row r="340" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E339" s="1"/>
+    </row>
+    <row r="340" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B340" s="1">
         <v>62312</v>
       </c>
-    </row>
-    <row r="341" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E340" s="1"/>
+    </row>
+    <row r="341" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B341" s="1">
         <v>62313</v>
       </c>
-    </row>
-    <row r="342" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E341" s="1"/>
+    </row>
+    <row r="342" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B342" s="1">
         <v>62314</v>
       </c>
-    </row>
-    <row r="343" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E342" s="1"/>
+    </row>
+    <row r="343" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B343" s="1">
         <v>62315</v>
       </c>
-    </row>
-    <row r="344" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E343" s="1"/>
+    </row>
+    <row r="344" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B344" s="1">
         <v>62316</v>
       </c>
-    </row>
-    <row r="345" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E344" s="1"/>
+    </row>
+    <row r="345" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B345" s="1">
         <v>62317</v>
       </c>
-    </row>
-    <row r="346" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E345" s="1"/>
+    </row>
+    <row r="346" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B346" s="1">
         <v>62318</v>
       </c>
-    </row>
-    <row r="347" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E346" s="1"/>
+    </row>
+    <row r="347" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B347" s="1">
         <v>62319</v>
       </c>
-    </row>
-    <row r="348" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E347" s="1"/>
+    </row>
+    <row r="348" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B348" s="1">
         <v>62320</v>
       </c>
-    </row>
-    <row r="349" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E348" s="1"/>
+    </row>
+    <row r="349" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B349" s="1">
         <v>62321</v>
       </c>
-    </row>
-    <row r="350" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E349" s="1"/>
+    </row>
+    <row r="350" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B350" s="1">
         <v>62322</v>
       </c>
-    </row>
-    <row r="351" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E350" s="1"/>
+    </row>
+    <row r="351" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B351" s="1">
         <v>62323</v>
       </c>
-    </row>
-    <row r="352" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E351" s="1"/>
+    </row>
+    <row r="352" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B352" s="1">
         <v>62324</v>
       </c>
-    </row>
-    <row r="353" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E352" s="1"/>
+    </row>
+    <row r="353" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B353" s="1">
         <v>62325</v>
       </c>
-    </row>
-    <row r="354" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E353" s="1"/>
+    </row>
+    <row r="354" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B354" s="1">
         <v>62326</v>
       </c>
-    </row>
-    <row r="355" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E354" s="1"/>
+    </row>
+    <row r="355" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B355" s="1">
         <v>62327</v>
       </c>
-    </row>
-    <row r="356" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E355" s="1"/>
+    </row>
+    <row r="356" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B356" s="1">
         <v>62328</v>
       </c>
-    </row>
-    <row r="357" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E356" s="1"/>
+    </row>
+    <row r="357" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B357" s="1">
         <v>62329</v>
       </c>
-    </row>
-    <row r="358" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E357" s="1"/>
+    </row>
+    <row r="358" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B358" s="1">
         <v>62330</v>
       </c>
-    </row>
-    <row r="359" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E358" s="1"/>
+    </row>
+    <row r="359" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B359" s="1">
         <v>62331</v>
       </c>
-    </row>
-    <row r="360" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E359" s="1"/>
+    </row>
+    <row r="360" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B360" s="1">
         <v>62332</v>
       </c>
-    </row>
-    <row r="361" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E360" s="1"/>
+    </row>
+    <row r="361" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B361" s="1">
         <v>62333</v>
       </c>
-    </row>
-    <row r="362" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E361" s="1"/>
+    </row>
+    <row r="362" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B362" s="1">
         <v>62334</v>
       </c>
-    </row>
-    <row r="363" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E362" s="1"/>
+    </row>
+    <row r="363" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B363" s="1">
         <v>62335</v>
       </c>
-    </row>
-    <row r="364" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E363" s="1"/>
+    </row>
+    <row r="364" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B364" s="1">
         <v>62336</v>
       </c>
-    </row>
-    <row r="365" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E364" s="1"/>
+    </row>
+    <row r="365" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B365" s="1">
         <v>62337</v>
       </c>
-    </row>
-    <row r="366" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E365" s="1"/>
+    </row>
+    <row r="366" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B366" s="1">
         <v>62338</v>
       </c>
-    </row>
-    <row r="367" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E366" s="1"/>
+    </row>
+    <row r="367" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B367" s="1">
         <v>62339</v>
       </c>
-    </row>
-    <row r="368" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E367" s="1"/>
+    </row>
+    <row r="368" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B368" s="1">
         <v>62340</v>
       </c>
-    </row>
-    <row r="369" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E368" s="1"/>
+    </row>
+    <row r="369" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B369" s="1">
         <v>62341</v>
       </c>
-    </row>
-    <row r="370" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E369" s="1"/>
+    </row>
+    <row r="370" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B370" s="1">
         <v>62342</v>
       </c>
-    </row>
-    <row r="371" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E370" s="1"/>
+    </row>
+    <row r="371" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B371" s="1">
         <v>62343</v>
       </c>
-    </row>
-    <row r="372" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E371" s="1"/>
+    </row>
+    <row r="372" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B372" s="1">
         <v>62344</v>
       </c>
-    </row>
-    <row r="373" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E372" s="1"/>
+    </row>
+    <row r="373" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B373" s="1">
         <v>62345</v>
       </c>
-    </row>
-    <row r="374" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E373" s="1"/>
+    </row>
+    <row r="374" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B374" s="1">
         <v>62346</v>
       </c>
-    </row>
-    <row r="375" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E374" s="1"/>
+    </row>
+    <row r="375" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B375" s="1">
         <v>62347</v>
       </c>
-    </row>
-    <row r="376" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E375" s="1"/>
+    </row>
+    <row r="376" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B376" s="1">
         <v>62348</v>
       </c>
-    </row>
-    <row r="377" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E376" s="1"/>
+    </row>
+    <row r="377" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B377" s="1">
         <v>62349</v>
       </c>
-    </row>
-    <row r="378" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E377" s="1"/>
+    </row>
+    <row r="378" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B378" s="1">
         <v>62350</v>
       </c>
-    </row>
-    <row r="379" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E378" s="1"/>
+    </row>
+    <row r="379" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B379" s="1">
         <v>62351</v>
       </c>
-    </row>
-    <row r="380" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E379" s="1"/>
+    </row>
+    <row r="380" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B380" s="1">
         <v>62352</v>
       </c>
-    </row>
-    <row r="381" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E380" s="1"/>
+    </row>
+    <row r="381" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B381" s="1">
         <v>62353</v>
       </c>
-    </row>
-    <row r="382" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E381" s="1"/>
+    </row>
+    <row r="382" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B382" s="1">
         <v>62354</v>
       </c>
-    </row>
-    <row r="383" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E382" s="1"/>
+    </row>
+    <row r="383" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B383" s="1">
         <v>62355</v>
       </c>
-    </row>
-    <row r="384" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E383" s="1"/>
+    </row>
+    <row r="384" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B384" s="1">
         <v>62356</v>
       </c>
-    </row>
-    <row r="385" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E384" s="1"/>
+    </row>
+    <row r="385" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B385" s="1">
         <v>62357</v>
       </c>
-    </row>
-    <row r="386" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E385" s="1"/>
+    </row>
+    <row r="386" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B386" s="1">
         <v>62358</v>
       </c>
-    </row>
-    <row r="387" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E386" s="1"/>
+    </row>
+    <row r="387" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B387" s="1">
         <v>62359</v>
       </c>
-    </row>
-    <row r="388" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E387" s="1"/>
+    </row>
+    <row r="388" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B388" s="1">
         <v>62360</v>
       </c>
-    </row>
-    <row r="389" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E388" s="1"/>
+    </row>
+    <row r="389" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B389" s="1">
         <v>62361</v>
       </c>
-    </row>
-    <row r="390" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E389" s="1"/>
+    </row>
+    <row r="390" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B390" s="1">
         <v>62362</v>
       </c>
-    </row>
-    <row r="391" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E390" s="1"/>
+    </row>
+    <row r="391" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B391" s="1">
         <v>62363</v>
       </c>
-    </row>
-    <row r="392" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E391" s="1"/>
+    </row>
+    <row r="392" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B392" s="1">
         <v>62364</v>
       </c>
-    </row>
-    <row r="393" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E392" s="1"/>
+    </row>
+    <row r="393" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B393" s="1">
         <v>62365</v>
       </c>
-    </row>
-    <row r="394" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E393" s="1"/>
+    </row>
+    <row r="394" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B394" s="1">
         <v>62366</v>
       </c>
-    </row>
-    <row r="395" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E394" s="1"/>
+    </row>
+    <row r="395" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B395" s="1">
         <v>62367</v>
       </c>
-    </row>
-    <row r="396" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E395" s="1"/>
+    </row>
+    <row r="396" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B396" s="1">
         <v>62368</v>
       </c>
-    </row>
-    <row r="397" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E396" s="1"/>
+    </row>
+    <row r="397" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B397" s="1">
         <v>62369</v>
       </c>
-    </row>
-    <row r="398" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E397" s="1"/>
+    </row>
+    <row r="398" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B398" s="1">
         <v>62370</v>
       </c>
-    </row>
-    <row r="399" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E398" s="1"/>
+    </row>
+    <row r="399" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B399" s="1">
         <v>62371</v>
       </c>
-    </row>
-    <row r="400" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E399" s="1"/>
+    </row>
+    <row r="400" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B400" s="1">
         <v>62372</v>
       </c>
-    </row>
-    <row r="401" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E400" s="1"/>
+    </row>
+    <row r="401" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B401" s="1">
         <v>62373</v>
       </c>
-    </row>
-    <row r="402" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E401" s="1"/>
+    </row>
+    <row r="402" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B402" s="1">
         <v>62374</v>
       </c>
-    </row>
-    <row r="403" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E402" s="1"/>
+    </row>
+    <row r="403" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B403" s="1">
         <v>62375</v>
       </c>
-    </row>
-    <row r="404" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E403" s="1"/>
+    </row>
+    <row r="404" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B404" s="1">
         <v>62376</v>
       </c>
-    </row>
-    <row r="405" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E404" s="1"/>
+    </row>
+    <row r="405" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B405" s="1">
         <v>62377</v>
       </c>
-    </row>
-    <row r="406" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E405" s="1"/>
+    </row>
+    <row r="406" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B406" s="1">
         <v>62378</v>
       </c>
-    </row>
-    <row r="407" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E406" s="1"/>
+    </row>
+    <row r="407" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B407" s="1">
         <v>62379</v>
       </c>
-    </row>
-    <row r="408" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E407" s="1"/>
+    </row>
+    <row r="408" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B408" s="1">
         <v>62380</v>
       </c>
-    </row>
-    <row r="409" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E408" s="1"/>
+    </row>
+    <row r="409" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B409" s="1">
         <v>62381</v>
       </c>
-    </row>
-    <row r="410" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E409" s="1"/>
+    </row>
+    <row r="410" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B410" s="1">
         <v>62382</v>
       </c>
-    </row>
-    <row r="411" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E410" s="1"/>
+    </row>
+    <row r="411" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B411" s="1">
         <v>62383</v>
       </c>
-    </row>
-    <row r="412" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E411" s="1"/>
+    </row>
+    <row r="412" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B412" s="1">
         <v>62384</v>
       </c>
-    </row>
-    <row r="413" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E412" s="1"/>
+    </row>
+    <row r="413" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B413" s="1">
         <v>62385</v>
       </c>
-    </row>
-    <row r="414" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E413" s="1"/>
+    </row>
+    <row r="414" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B414" s="1">
         <v>62386</v>
       </c>
-    </row>
-    <row r="415" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E414" s="1"/>
+    </row>
+    <row r="415" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B415" s="1">
         <v>62387</v>
       </c>
-    </row>
-    <row r="416" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E415" s="1"/>
+    </row>
+    <row r="416" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B416" s="1">
         <v>62388</v>
       </c>
-    </row>
-    <row r="417" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E416" s="1"/>
+    </row>
+    <row r="417" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B417" s="1">
         <v>62389</v>
       </c>
-    </row>
-    <row r="418" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E417" s="1"/>
+    </row>
+    <row r="418" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B418" s="1">
         <v>62390</v>
       </c>
-    </row>
-    <row r="419" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E418" s="1"/>
+    </row>
+    <row r="419" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B419" s="1">
         <v>62391</v>
       </c>
-    </row>
-    <row r="420" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E419" s="1"/>
+    </row>
+    <row r="420" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B420" s="1">
         <v>62392</v>
       </c>
-    </row>
-    <row r="421" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E420" s="1"/>
+    </row>
+    <row r="421" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B421" s="1">
         <v>62393</v>
       </c>
-    </row>
-    <row r="422" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E421" s="1"/>
+    </row>
+    <row r="422" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B422" s="1">
         <v>62394</v>
       </c>
-    </row>
-    <row r="423" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E422" s="1"/>
+    </row>
+    <row r="423" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B423" s="1">
         <v>62395</v>
       </c>
-    </row>
-    <row r="424" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E423" s="1"/>
+    </row>
+    <row r="424" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B424" s="1">
         <v>62396</v>
       </c>
-    </row>
-    <row r="425" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E424" s="1"/>
+    </row>
+    <row r="425" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B425" s="1">
         <v>62397</v>
       </c>
-    </row>
-    <row r="426" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E425" s="1"/>
+    </row>
+    <row r="426" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B426" s="1">
         <v>62398</v>
       </c>
-    </row>
-    <row r="427" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E426" s="1"/>
+    </row>
+    <row r="427" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B427" s="1">
         <v>62399</v>
       </c>
-    </row>
-    <row r="428" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E427" s="1"/>
+    </row>
+    <row r="428" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B428" s="1">
         <v>62400</v>
       </c>
-    </row>
-    <row r="429" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E428" s="1"/>
+    </row>
+    <row r="429" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B429" s="1">
         <v>62401</v>
       </c>
-    </row>
-    <row r="430" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E429" s="1"/>
+    </row>
+    <row r="430" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B430" s="1">
         <v>62402</v>
       </c>
-    </row>
-    <row r="431" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E430" s="1"/>
+    </row>
+    <row r="431" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B431" s="1">
         <v>62403</v>
       </c>
-    </row>
-    <row r="432" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E431" s="1"/>
+    </row>
+    <row r="432" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B432" s="1">
         <v>62404</v>
       </c>
-    </row>
-    <row r="433" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E432" s="1"/>
+    </row>
+    <row r="433" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B433" s="1">
         <v>62405</v>
       </c>
-    </row>
-    <row r="434" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E433" s="1"/>
+    </row>
+    <row r="434" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B434" s="1">
         <v>62406</v>
       </c>
-    </row>
-    <row r="435" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E434" s="1"/>
+    </row>
+    <row r="435" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B435" s="1">
         <v>62407</v>
       </c>
-    </row>
-    <row r="436" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E435" s="1"/>
+    </row>
+    <row r="436" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B436" s="1">
         <v>62408</v>
       </c>
-    </row>
-    <row r="437" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E436" s="1"/>
+    </row>
+    <row r="437" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B437" s="1">
         <v>62409</v>
       </c>
-    </row>
-    <row r="438" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E437" s="1"/>
+    </row>
+    <row r="438" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B438" s="1">
         <v>62410</v>
       </c>
-    </row>
-    <row r="439" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E438" s="1"/>
+    </row>
+    <row r="439" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B439" s="1">
         <v>62411</v>
       </c>
-    </row>
-    <row r="440" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E439" s="1"/>
+    </row>
+    <row r="440" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B440" s="1">
         <v>62412</v>
       </c>
-    </row>
-    <row r="441" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E440" s="1"/>
+    </row>
+    <row r="441" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B441" s="1">
         <v>62413</v>
       </c>
-    </row>
-    <row r="442" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E441" s="1"/>
+    </row>
+    <row r="442" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B442" s="1">
         <v>62414</v>
       </c>
-    </row>
-    <row r="443" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E442" s="1"/>
+    </row>
+    <row r="443" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B443" s="1">
         <v>62415</v>
       </c>
-    </row>
-    <row r="444" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E443" s="1"/>
+    </row>
+    <row r="444" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B444" s="1">
         <v>62416</v>
       </c>
-    </row>
-    <row r="445" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E444" s="1"/>
+    </row>
+    <row r="445" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B445" s="1">
         <v>62417</v>
       </c>
-    </row>
-    <row r="446" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E445" s="1"/>
+    </row>
+    <row r="446" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B446" s="1">
         <v>62418</v>
       </c>
-    </row>
-    <row r="447" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E446" s="1"/>
+    </row>
+    <row r="447" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B447" s="1">
         <v>62419</v>
       </c>
-    </row>
-    <row r="448" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E447" s="1"/>
+    </row>
+    <row r="448" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B448" s="1">
         <v>62420</v>
       </c>
-    </row>
-    <row r="449" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E448" s="1"/>
+    </row>
+    <row r="449" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B449" s="1">
         <v>62421</v>
       </c>
-    </row>
-    <row r="450" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E449" s="1"/>
+    </row>
+    <row r="450" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B450" s="1">
         <v>62422</v>
       </c>
-    </row>
-    <row r="451" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E450" s="1"/>
+    </row>
+    <row r="451" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B451" s="1">
         <v>62423</v>
       </c>
-    </row>
-    <row r="452" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E451" s="1"/>
+    </row>
+    <row r="452" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B452" s="1">
         <v>62424</v>
       </c>
-    </row>
-    <row r="453" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E452" s="1"/>
+    </row>
+    <row r="453" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B453" s="1">
         <v>62425</v>
       </c>
-    </row>
-    <row r="454" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E453" s="1"/>
+    </row>
+    <row r="454" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B454" s="1">
         <v>62426</v>
       </c>
-    </row>
-    <row r="455" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E454" s="1"/>
+    </row>
+    <row r="455" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B455" s="1">
         <v>62427</v>
       </c>
-    </row>
-    <row r="456" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E455" s="1"/>
+    </row>
+    <row r="456" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B456" s="1">
         <v>62428</v>
       </c>
-    </row>
-    <row r="457" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E456" s="1"/>
+    </row>
+    <row r="457" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B457" s="1">
         <v>62429</v>
       </c>
-    </row>
-    <row r="458" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E457" s="1"/>
+    </row>
+    <row r="458" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B458" s="1">
         <v>62430</v>
       </c>
-    </row>
-    <row r="459" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E458" s="1"/>
+    </row>
+    <row r="459" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B459" s="1">
         <v>62431</v>
       </c>
-    </row>
-    <row r="460" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E459" s="1"/>
+    </row>
+    <row r="460" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B460" s="1">
         <v>62432</v>
       </c>
-    </row>
-    <row r="461" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E460" s="1"/>
+    </row>
+    <row r="461" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B461" s="1">
         <v>62433</v>
       </c>
-    </row>
-    <row r="462" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E461" s="1"/>
+    </row>
+    <row r="462" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B462" s="1">
         <v>62434</v>
       </c>
-    </row>
-    <row r="463" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E462" s="1"/>
+    </row>
+    <row r="463" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B463" s="1">
         <v>62435</v>
       </c>
-    </row>
-    <row r="464" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E463" s="1"/>
+    </row>
+    <row r="464" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B464" s="1">
         <v>62436</v>
       </c>
-    </row>
-    <row r="465" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E464" s="1"/>
+    </row>
+    <row r="465" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B465" s="1">
         <v>62437</v>
       </c>
-    </row>
-    <row r="466" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E465" s="1"/>
+    </row>
+    <row r="466" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B466" s="1">
         <v>62438</v>
       </c>
-    </row>
-    <row r="467" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E466" s="1"/>
+    </row>
+    <row r="467" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B467" s="1">
         <v>62439</v>
       </c>
-    </row>
-    <row r="468" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E467" s="1"/>
+    </row>
+    <row r="468" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B468" s="1">
         <v>62440</v>
       </c>
-    </row>
-    <row r="469" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E468" s="1"/>
+    </row>
+    <row r="469" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B469" s="1">
         <v>62441</v>
       </c>
-    </row>
-    <row r="470" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E469" s="1"/>
+    </row>
+    <row r="470" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B470" s="1">
         <v>62442</v>
       </c>
-    </row>
-    <row r="471" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E470" s="1"/>
+    </row>
+    <row r="471" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B471" s="1">
         <v>62443</v>
       </c>
-    </row>
-    <row r="472" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E471" s="1"/>
+    </row>
+    <row r="472" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B472" s="1">
         <v>62444</v>
       </c>
-    </row>
-    <row r="473" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E472" s="1"/>
+    </row>
+    <row r="473" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B473" s="1">
         <v>62445</v>
       </c>
-    </row>
-    <row r="474" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E473" s="1"/>
+    </row>
+    <row r="474" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B474" s="1">
         <v>62446</v>
       </c>
-    </row>
-    <row r="475" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E474" s="1"/>
+    </row>
+    <row r="475" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B475" s="1">
         <v>62447</v>
       </c>
-    </row>
-    <row r="476" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E475" s="1"/>
+    </row>
+    <row r="476" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B476" s="1">
         <v>62448</v>
       </c>
-    </row>
-    <row r="477" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E476" s="1"/>
+    </row>
+    <row r="477" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B477" s="1">
         <v>62449</v>
       </c>
-    </row>
-    <row r="478" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E477" s="1"/>
+    </row>
+    <row r="478" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B478" s="1">
         <v>62450</v>
       </c>
-    </row>
-    <row r="479" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E478" s="1"/>
+    </row>
+    <row r="479" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B479" s="1">
         <v>62451</v>
       </c>
-    </row>
-    <row r="480" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E479" s="1"/>
+    </row>
+    <row r="480" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B480" s="1">
         <v>62452</v>
       </c>
-    </row>
-    <row r="481" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E480" s="1"/>
+    </row>
+    <row r="481" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B481" s="1">
         <v>62453</v>
       </c>
-    </row>
-    <row r="482" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E481" s="1"/>
+    </row>
+    <row r="482" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B482" s="1">
         <v>62454</v>
       </c>
-    </row>
-    <row r="483" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E482" s="1"/>
+    </row>
+    <row r="483" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B483" s="1">
         <v>62455</v>
       </c>
-    </row>
-    <row r="484" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E483" s="1"/>
+    </row>
+    <row r="484" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B484" s="1">
         <v>62456</v>
       </c>
-    </row>
-    <row r="485" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E484" s="1"/>
+    </row>
+    <row r="485" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B485" s="1">
         <v>62457</v>
       </c>
-    </row>
-    <row r="486" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E485" s="1"/>
+    </row>
+    <row r="486" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B486" s="1">
         <v>62458</v>
       </c>
-    </row>
-    <row r="487" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E486" s="1"/>
+    </row>
+    <row r="487" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B487" s="1">
         <v>62459</v>
       </c>
-    </row>
-    <row r="488" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E487" s="1"/>
+    </row>
+    <row r="488" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B488" s="1">
         <v>62460</v>
       </c>
-    </row>
-    <row r="489" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E488" s="1"/>
+    </row>
+    <row r="489" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B489" s="1">
         <v>62461</v>
       </c>
-    </row>
-    <row r="490" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E489" s="1"/>
+    </row>
+    <row r="490" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B490" s="1">
         <v>62462</v>
       </c>
-    </row>
-    <row r="491" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E490" s="1"/>
+    </row>
+    <row r="491" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B491" s="1">
         <v>62463</v>
       </c>
-    </row>
-    <row r="492" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E491" s="1"/>
+    </row>
+    <row r="492" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B492" s="1">
         <v>62464</v>
       </c>
-    </row>
-    <row r="493" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E492" s="1"/>
+    </row>
+    <row r="493" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B493" s="1">
         <v>62465</v>
       </c>
-    </row>
-    <row r="494" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E493" s="1"/>
+    </row>
+    <row r="494" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B494" s="1">
         <v>62466</v>
       </c>
-    </row>
-    <row r="495" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E494" s="1"/>
+    </row>
+    <row r="495" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B495" s="1">
         <v>62467</v>
       </c>
-    </row>
-    <row r="496" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E495" s="1"/>
+    </row>
+    <row r="496" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B496" s="1">
         <v>62468</v>
       </c>
-    </row>
-    <row r="497" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E496" s="1"/>
+    </row>
+    <row r="497" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B497" s="1">
         <v>62469</v>
       </c>
-    </row>
-    <row r="498" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E497" s="1"/>
+    </row>
+    <row r="498" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B498" s="1">
         <v>62470</v>
       </c>
-    </row>
-    <row r="499" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E498" s="1"/>
+    </row>
+    <row r="499" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B499" s="1">
         <v>62471</v>
       </c>
-    </row>
-    <row r="500" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E499" s="1"/>
+    </row>
+    <row r="500" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B500" s="1">
         <v>62472</v>
       </c>
-    </row>
-    <row r="501" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E500" s="1"/>
+    </row>
+    <row r="501" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B501" s="1">
         <v>62473</v>
       </c>
-    </row>
-    <row r="502" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E501" s="1"/>
+    </row>
+    <row r="502" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B502" s="1">
         <v>62474</v>
       </c>
-    </row>
-    <row r="503" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E502" s="1"/>
+    </row>
+    <row r="503" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B503" s="1">
         <v>62475</v>
       </c>
-    </row>
-    <row r="504" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E503" s="1"/>
+    </row>
+    <row r="504" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B504" s="1">
         <v>62476</v>
       </c>
-    </row>
-    <row r="505" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E504" s="1"/>
+    </row>
+    <row r="505" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B505" s="1">
         <v>62477</v>
       </c>
+      <c r="E505" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
